--- a/数据整理/stocks/A股/创业板/300343-联创股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300343-联创股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1457,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,17 +1469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1488,13 +1509,217 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0971</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>25</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>5.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300343-联创股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300343-联创股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.27</v>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1483</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1713,13 +1756,537 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5895</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5431</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3359</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2035</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1400</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>970050</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东海海睿锐意3个月定开灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>25</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>5.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300343-联创股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300343-联创股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2217,7 +2218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2228,17 +2229,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2248,14 +2269,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.32</v>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2264,14 +2307,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>1.27</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="4">
@@ -2280,13 +2413,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>25</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>5.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300343-联创股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300343-联创股份.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,1003 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008638</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发科技创新混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>45.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.0018</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519005</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>海富通股票混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25.37</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.75</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7814</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010622</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>恒越成长精选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>24.55</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.85</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5794</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+      <c r="D4" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010701</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>恒越内需驱动混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.98</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3691</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009651</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>海富通成长甄选混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.78</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3286</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001749</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商中国机遇股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.26</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2616</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010623</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>恒越成长精选混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.85</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1751</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009652</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>海富通成长甄选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1183</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009347</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中融价值成长6个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.27</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0988</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010702</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>恒越内需驱动混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0911</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>310368</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>申万菱信竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0617</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006123</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中融高股息精选混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0547</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004008</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中融鑫思路灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>27.90</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0434</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>290008</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>泰信发展主题混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0381</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>900027</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>87.99</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0321</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>290014</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>泰信现代服务业混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0302</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008526</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华泰柏瑞行业精选混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>79.55</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0261</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006124</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中融高股息精选混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004009</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中融鑫思路灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>27.90</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0212</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009348</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中融价值成长6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.27</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008527</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华泰柏瑞行业精选混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>79.55</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008437</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>九泰行业优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>50.36</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008438</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>九泰行业优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>50.36</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>900077</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>87.99</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>900087</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>87.99</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1460,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1511,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001704</t>
+          <t>001219</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银进宝灵活配置混合</t>
+          <t>上投摩根动态多因子策略混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.39</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>87.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0971</t>
+          <t>0.0247</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1559,102 +653,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.00</t>
+          <t>98.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0565</t>
+          <t>0.0028</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>310368</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>申万菱信竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0563</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005009</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>申万菱信行业轮动股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0552</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2218,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2269,36 +1287,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001219</t>
+          <t>001704</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根动态多因子策略混合</t>
+          <t>国投瑞银进宝灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>35.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.90</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0247</t>
+          <t>1.0971</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2317,26 +1335,102 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.13</t>
+          <t>97.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.0565</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2350,96 +1444,1002 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0018</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7814</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5794</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3691</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3286</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="D3" t="n">
-        <v>4.32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.16</v>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004009</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300343-联创股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300343-联创股份.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>4.32</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>1.27</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>25</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.16</v>
       </c>
     </row>
@@ -549,6 +566,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -680,7 +791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1230,7 +1341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1438,7 +1549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
